--- a/InputFiles/ICDC/TC08_ICDC_NCATSCOP01_Sex-Male.xlsx
+++ b/InputFiles/ICDC/TC08_ICDC_NCATSCOP01_Sex-Male.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\ICDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A84D19-496B-4C5B-993E-81F81B5C4C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EC097D-6E04-446C-8DF4-0778BE06B58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31350" yWindow="3315" windowWidth="21600" windowHeight="11535" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -281,45 +281,31 @@
         ELSE 'Unknown'
     END AS "Format",
     COALESCE(cf_sample.file_type, cf_diagnosis.file_type) AS "File Type",
-    CASE     
-        WHEN COALESCE(cf_sample.file_size, cf_diagnosis.file_size) &gt;= 1024 * 1024 * 1024 THEN 
-            CASE 
-                WHEN MOD(COALESCE(cf_sample.file_size, cf_diagnosis.file_size), (1024 * 1024 * 1024)) = 0 
-                THEN CAST(COALESCE(cf_sample.file_size, cf_diagnosis.file_size) / (1024 * 1024 * 1024) AS INT) || ' GB'
-                ELSE 
-                    CASE 
-                        WHEN ROUND(COALESCE(cf_sample.file_size, cf_diagnosis.file_size) / (1024.0 * 1024.0 * 1024.0), 2) = 
-                             CAST(ROUND(COALESCE(cf_sample.file_size, cf_diagnosis.file_size) / (1024.0 * 1024.0 * 1024.0), 2) AS INT) 
-                        THEN CAST(CAST(ROUND(COALESCE(cf_sample.file_size, cf_diagnosis.file_size) / (1024.0 * 1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' GB'
-                        ELSE ROUND(COALESCE(cf_sample.file_size, cf_diagnosis.file_size) / (1024.0 * 1024.0 * 1024.0), 2) || ' GB'
-                    END
-            END
-        WHEN COALESCE(cf_sample.file_size, cf_diagnosis.file_size) &gt;= 1024 * 1024 THEN 
-            CASE 
-                WHEN MOD(COALESCE(cf_sample.file_size, cf_diagnosis.file_size), (1024 * 1024)) = 0 
-                THEN CAST(COALESCE(cf_sample.file_size, cf_diagnosis.file_size) / (1024 * 1024) AS INT) || ' MB'
-                ELSE 
-                    CASE 
-                        WHEN ROUND(COALESCE(cf_sample.file_size, cf_diagnosis.file_size) / (1024.0 * 1024.0), 2) = 
-                             CAST(ROUND(COALESCE(cf_sample.file_size, cf_diagnosis.file_size) / (1024.0 * 1024.0), 2) AS INT) 
-                        THEN CAST(CAST(ROUND(COALESCE(cf_sample.file_size, cf_diagnosis.file_size) / (1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' MB'
-                        ELSE ROUND(COALESCE(cf_sample.file_size, cf_diagnosis.file_size) / (1024.0 * 1024.0), 2) || ' MB'
-                    END
-            END
-        WHEN COALESCE(cf_sample.file_size, cf_diagnosis.file_size) &gt;= 1024 THEN 
-            CASE 
-                WHEN MOD(COALESCE(cf_sample.file_size, cf_diagnosis.file_size), 1024) = 0 
-                THEN CAST(COALESCE(cf_sample.file_size, cf_diagnosis.file_size) / 1024 AS INT) || ' KB'
-                ELSE 
-                    CASE 
-                        WHEN ROUND(COALESCE(cf_sample.file_size, cf_diagnosis.file_size) / 1024.0, 2) = 
-                             CAST(ROUND(COALESCE(cf_sample.file_size, cf_diagnosis.file_size) / 1024.0, 2) AS INT) 
-                        THEN CAST(CAST(ROUND(COALESCE(cf_sample.file_size, cf_diagnosis.file_size) / 1024.0, 0) AS INT) AS TEXT) || ' KB'
-                        ELSE ROUND(COALESCE(cf_sample.file_size, cf_diagnosis.file_size) / 1024.0, 2) || ' KB'
-                    END
-            END
-        ELSE 
-            CAST(COALESCE(cf_sample.file_size, cf_diagnosis.file_size) AS TEXT) || ' Bytes'
+       CASE     
+    WHEN COALESCE(cf_sample.file_size, cf_diagnosis.file_size) &gt;= 1024 * 1024 * 1024 THEN 
+        CASE 
+            WHEN ROUND(COALESCE(cf_sample.file_size, cf_diagnosis.file_size) / (1024.0 * 1024.0 * 1024.0), 2) = CAST(ROUND(COALESCE(cf_sample.file_size, cf_diagnosis.file_size) / (1024.0 * 1024.0 * 1024.0), 0) AS INT) 
+            THEN CAST(CAST(ROUND(COALESCE(cf_sample.file_size, cf_diagnosis.file_size) / (1024.0 * 1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' GB'
+            ELSE ROUND(COALESCE(cf_sample.file_size, cf_diagnosis.file_size) / (1024.0 * 1024.0 * 1024.0), 2) || ' GB'
+        END
+    WHEN COALESCE(cf_sample.file_size, cf_diagnosis.file_size) &gt;= 1024 * 1024 THEN 
+        CASE 
+            WHEN ROUND(COALESCE(cf_sample.file_size, cf_diagnosis.file_size) / (1024.0 * 1024.0), 2) = CAST(ROUND(COALESCE(cf_sample.file_size, cf_diagnosis.file_size) / (1024.0 * 1024.0), 0) AS INT) 
+            THEN CAST(CAST(ROUND(COALESCE(cf_sample.file_size, cf_diagnosis.file_size) / (1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' MB'
+            ELSE ROUND(COALESCE(cf_sample.file_size, cf_diagnosis.file_size) / (1024.0 * 1024.0), 2) || ' MB'
+        END
+    WHEN COALESCE(cf_sample.file_size, cf_diagnosis.file_size) &gt;= 1024 THEN 
+        CASE 
+            WHEN ROUND(COALESCE(cf_sample.file_size, cf_diagnosis.file_size) / 1024.0, 2) = CAST(ROUND(COALESCE(cf_sample.file_size, cf_diagnosis.file_size) / 1024.0, 0) AS INT) 
+            THEN CAST(CAST(ROUND(COALESCE(cf_sample.file_size, cf_diagnosis.file_size) / 1024.0, 0) AS INT) AS TEXT) || ' KB'
+            ELSE ROUND(COALESCE(cf_sample.file_size, cf_diagnosis.file_size) / 1024.0, 2) || ' KB'
+        END
+    ELSE 
+        CASE 
+            WHEN ROUND(COALESCE(cf_sample.file_size, cf_diagnosis.file_size), 2) = CAST(ROUND(COALESCE(cf_sample.file_size, cf_diagnosis.file_size), 0) AS INT) 
+            THEN CAST(CAST(ROUND(COALESCE(cf_sample.file_size, cf_diagnosis.file_size), 0) AS INT) AS TEXT) || ' Bytes'
+            ELSE ROUND(COALESCE(cf_sample.file_size, cf_diagnosis.file_size), 2) || ' Bytes'
+        END
     END AS "Size",
     CASE 
         WHEN cf_sample.file_name IS NOT NULL THEN 'sample'
@@ -746,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
